--- a/FARROUPILHA.xlsx
+++ b/FARROUPILHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5AE616-BC18-494C-B3FD-2F92D658D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B7DEB7-EC61-44EE-A69B-A0521F6D32F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1068,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1128,36 +1115,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,14 +1159,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,7 +1206,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A49C4605-BE58-4785-B006-7519F6DDE89A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9EF88B0E-41BA-494A-A985-8E1D0A6CA95B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1278,10 +1236,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDF4735-62C7-4974-BD4D-39EF3883786C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA02D97-F859-4227-B578-53C86AD3E191}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1277,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C73CEA8-F270-43E9-AFF6-87D091F5DE7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914AF8F-13D0-482A-976D-5C87D0E82D30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1340,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276550FD-023E-4B19-9A19-B763AAC7186D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A98A3C-3832-434D-AE3D-E9F6B0A3DE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1359,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6FD63FE-C8E4-1B11-5088-2EB9AD98DBA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB93307-F92A-38EC-1C90-24B12B79D3F2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1450,7 +1408,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483E2A6E-0375-870F-6765-3ADE6EEE8AF8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3979C1F8-E89C-542C-EDEA-B411F1C5F068}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1469,7 +1427,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B54CE64-9A7B-D171-89E6-851B438B661F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B7C1CF-E409-C145-3AD3-853631CC6C9C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,7 +1458,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8682B547-218D-2AF9-2DE8-4C2E6C62F020}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21B651B-46C3-DE0E-F608-F8A51C457780}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1531,7 +1489,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B201435-1653-E029-D87A-E1A067BB6EA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699F48B7-6030-9A7C-2715-77D401C2A95A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1574,7 +1532,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86BEFD7-2C5B-4FF1-AB70-469CA8EB5A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B854B03F-8A8E-4827-8696-254708431F54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1570,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C6DC0C-A814-43E2-BE0B-F0A3BBDC13CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC507AC-CA01-498B-8BE5-3C56EA0F848D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1613,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BE8765-925E-4D8E-8203-D3EC3A51FC47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E447B7B8-ECBA-4A4B-A786-FB9EFE0BDA16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC359A6-C104-4095-B89A-CF359FE6847C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99861F13-7469-45F7-A16B-D59FD5BBD3F5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1980,98 +1938,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5307,19 +5265,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5342,68 +5300,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5428,54 +5386,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5486,41 +5445,41 @@
       <c r="B2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45901</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>13381</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="24">
         <v>1791</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="25" t="s">
         <v>297</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>299</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="26" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5551,25 +5510,24 @@
       <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="31">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="28">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="31">
         <v>45</v>
       </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="34">
-        <v>45</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>2.975796852268218E-3</v>
       </c>
     </row>

--- a/FARROUPILHA.xlsx
+++ b/FARROUPILHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B7DEB7-EC61-44EE-A69B-A0521F6D32F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7832FF8-183B-4279-9285-8C10BFE49441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9EF88B0E-41BA-494A-A985-8E1D0A6CA95B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{647520D9-FAE0-43CD-A482-FD0B4DA4CF55}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,10 +1236,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA02D97-F859-4227-B578-53C86AD3E191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D46BE0-AFAD-4EE8-9DC9-22A6CC6AD516}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914AF8F-13D0-482A-976D-5C87D0E82D30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC12E71-2028-4180-A951-34CD75B64560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1340,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A98A3C-3832-434D-AE3D-E9F6B0A3DE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C04410-5E88-4E11-9498-BF821F2264C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1359,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB93307-F92A-38EC-1C90-24B12B79D3F2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772ABA1A-ABBF-C825-7B0B-FAC2D5451870}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3979C1F8-E89C-542C-EDEA-B411F1C5F068}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CDB3DF-F07D-A63F-2AC9-35C4AF21A409}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B7C1CF-E409-C145-3AD3-853631CC6C9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE87754-813E-1DC8-934C-F364B8FB4624}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1458,7 +1458,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21B651B-46C3-DE0E-F608-F8A51C457780}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C29886A-717E-5829-223A-76944158E6B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699F48B7-6030-9A7C-2715-77D401C2A95A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93310901-394B-A969-4286-F32F3E22E6A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B854B03F-8A8E-4827-8696-254708431F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8059C13-F976-4DE0-BA0E-2F38B39712F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1570,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC507AC-CA01-498B-8BE5-3C56EA0F848D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74011740-7E0D-4262-91BF-DB6D06C6D0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1613,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E447B7B8-ECBA-4A4B-A786-FB9EFE0BDA16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86996C21-B031-46E1-8C2F-ECDF87C1CC05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99861F13-7469-45F7-A16B-D59FD5BBD3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0A895E-E64D-40D5-B114-9F6B87603303}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FARROUPILHA.xlsx
+++ b/FARROUPILHA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7832FF8-183B-4279-9285-8C10BFE49441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C460D28-7F37-4B2D-AC05-2A32888EE0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="300">
   <si>
     <t>COMARCA</t>
   </si>
@@ -926,15 +925,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>FARROUPILHA</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,27 +1176,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{647520D9-FAE0-43CD-A482-FD0B4DA4CF55}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{851A72DA-1700-49C0-80DA-A41EB2FBE672}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,10 +1211,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D46BE0-AFAD-4EE8-9DC9-22A6CC6AD516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFFD698-478C-4310-B476-02244B662E9B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1252,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC12E71-2028-4180-A951-34CD75B64560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07990442-02DF-4E83-A287-A77C692743D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1315,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C04410-5E88-4E11-9498-BF821F2264C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125AFBDC-844A-4108-92AE-DB21436533B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1334,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772ABA1A-ABBF-C825-7B0B-FAC2D5451870}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49056238-D82A-2175-8621-187D8009F9DA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1408,7 +1383,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CDB3DF-F07D-A63F-2AC9-35C4AF21A409}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078E4DB4-B80F-40A4-DFB5-BFB5CE2BB1CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,7 +1402,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE87754-813E-1DC8-934C-F364B8FB4624}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3408E52A-758B-246A-31FF-349D3CF97F14}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1458,7 +1433,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C29886A-717E-5829-223A-76944158E6B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C15276-A8DA-5F6A-2F60-A568A16DEC12}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1464,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93310901-394B-A969-4286-F32F3E22E6A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4D9D93-21D3-FF03-ED9F-9E06BF6A6A0E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1507,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8059C13-F976-4DE0-BA0E-2F38B39712F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C18A52-3683-4FB3-9F05-249CC7A6F368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1545,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74011740-7E0D-4262-91BF-DB6D06C6D0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BC3384-49A5-45A5-BE1D-C6D979928164}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1588,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86996C21-B031-46E1-8C2F-ECDF87C1CC05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2BB41-D627-4BB1-BB0B-F4BB402A864B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0A895E-E64D-40D5-B114-9F6B87603303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CFBB4-A0EC-440D-AACB-51F5B7D5A3E2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1938,98 +1913,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5486,52 +5461,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="31">
-        <v>45</v>
-      </c>
-      <c r="C2" s="29">
-        <v>2.975796852268218E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/FARROUPILHA.xlsx
+++ b/FARROUPILHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C460D28-7F37-4B2D-AC05-2A32888EE0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A00F06C-682C-45BB-A081-A257CAAFD640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,7 +1181,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{851A72DA-1700-49C0-80DA-A41EB2FBE672}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FC12FEDA-259C-4B27-BDA2-D95158BCCABE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,10 +1211,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFFD698-478C-4310-B476-02244B662E9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56455DC9-D363-4A7F-9320-3A6C3A4A12D3}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1252,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07990442-02DF-4E83-A287-A77C692743D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B43446B-D289-4B64-AF83-D241E44A054C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125AFBDC-844A-4108-92AE-DB21436533B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957008EF-D268-4540-B3CC-0F2C79269ED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1334,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49056238-D82A-2175-8621-187D8009F9DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1E1FD5-6A5E-8742-ED78-24C55E897C68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1383,7 +1383,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078E4DB4-B80F-40A4-DFB5-BFB5CE2BB1CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E54E597-A119-8743-B108-0102D5CDD8E5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1402,7 +1402,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3408E52A-758B-246A-31FF-349D3CF97F14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD4AD00-2352-9153-1F31-CA58757EEDB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1433,7 +1433,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C15276-A8DA-5F6A-2F60-A568A16DEC12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24181E32-727C-8630-5D4B-E3DF3E86F52E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1464,7 +1464,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4D9D93-21D3-FF03-ED9F-9E06BF6A6A0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E50997-7ECB-D660-396A-23AA29EAF960}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C18A52-3683-4FB3-9F05-249CC7A6F368}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720F26FF-A5EF-48AC-8196-D24653CBCB32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BC3384-49A5-45A5-BE1D-C6D979928164}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1900779F-1EF3-411D-9753-934DCCA49FD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,50 +1570,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2BB41-D627-4BB1-BB0B-F4BB402A864B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1901,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CFBB4-A0EC-440D-AACB-51F5B7D5A3E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD4032C-55FF-40C8-A1EB-B23D4D3C1BBF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
